--- a/biology/Médecine/Biomécatronique/Biomécatronique.xlsx
+++ b/biology/Médecine/Biomécatronique/Biomécatronique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Biom%C3%A9catronique</t>
+          <t>Biomécatronique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>La biomécatronique est une science appliquée interdisciplinaire associant les recherches fondamentales en biomécanique aux techniques médicales et robotiques, et ayant pour objectif d’intégrer des éléments mécaniques dans le corps humain.
 Cette intégration (qui nécessitera souvent des techniques de chirurgie implantatoire) s’opère autant dans le but :
